--- a/REGULAR/TREASURY/BAYOT, ANISIA.xlsx
+++ b/REGULAR/TREASURY/BAYOT, ANISIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A57698-A7F4-4420-806C-BBE826BA7FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341EE2D-E55C-48C4-B72A-D4AF3E53E708}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1356,12 +1356,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,7 +1528,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>78.424999999999997</v>
+        <v>79.674999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1538,7 +1538,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.5</v>
+        <v>100.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3327,25 +3327,33 @@
       <c r="A92" s="40">
         <v>44986</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="B92" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="39">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="48">
+        <v>45005</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
@@ -3354,14 +3362,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="39">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="48">
+        <v>45009</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3379,7 +3391,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3397,7 +3409,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3415,7 +3427,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3433,7 +3445,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3451,7 +3463,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3469,7 +3481,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3487,7 +3499,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3505,7 +3517,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3523,7 +3535,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3541,7 +3553,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3559,7 +3571,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3577,7 +3589,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3595,7 +3607,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3613,7 +3625,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3631,7 +3643,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3649,7 +3661,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3667,7 +3679,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3685,7 +3697,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3703,7 +3715,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3721,7 +3733,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3739,7 +3751,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3757,7 +3769,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3775,7 +3787,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3793,7 +3805,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3811,7 +3823,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3829,7 +3841,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3847,7 +3859,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3865,7 +3877,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3883,7 +3895,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3901,7 +3913,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3936,7 +3948,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45992</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4048,20 +4062,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/BAYOT, ANISIA.xlsx
+++ b/REGULAR/TREASURY/BAYOT, ANISIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341EE2D-E55C-48C4-B72A-D4AF3E53E708}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F127EB-1DB5-4488-AF54-EE25399DE1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1356,12 +1356,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1538,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.75</v>
+        <v>98.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3375,7 +3375,9 @@
       <c r="A94" s="40">
         <v>45017</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
@@ -3384,16 +3386,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="48">
+        <v>45016</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -3402,14 +3408,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="48">
+        <v>45027</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3427,7 +3437,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3463,7 +3473,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3481,7 +3491,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3499,7 +3509,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3517,7 +3527,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3535,7 +3545,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3553,7 +3563,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3571,7 +3581,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3589,7 +3599,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3607,7 +3617,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3625,7 +3635,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3643,7 +3653,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3661,7 +3671,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3679,7 +3689,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3697,7 +3707,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3715,7 +3725,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3733,7 +3743,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3751,7 +3761,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3769,7 +3779,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3787,7 +3797,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3805,7 +3815,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3823,7 +3833,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3841,7 +3851,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3859,7 +3869,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3877,7 +3887,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3895,7 +3905,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3913,7 +3923,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3931,7 +3941,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3949,7 +3959,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3966,7 +3976,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45992</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -4078,20 +4090,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
